--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:04:27+00:00</t>
+    <t>2022-08-31T10:47:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:47:17+00:00</t>
+    <t>2022-08-31T12:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:43:18+00:00</t>
+    <t>2022-08-31T13:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T13:42:36+00:00</t>
+    <t>2022-08-31T15:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:28:04+00:00</t>
+    <t>2022-08-31T15:55:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:55:44+00:00</t>
+    <t>2022-09-01T06:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T06:32:04+00:00</t>
+    <t>2022-09-01T12:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T12:04:59+00:00</t>
+    <t>2022-09-02T02:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T02:55:21+00:00</t>
+    <t>2022-09-02T03:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -113,7 +113,7 @@
     <t>urn:oid:1.2.392.100495.20.1.81</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.200119.4.403.1</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeHOT9_CS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.1.73</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T03:38:16+00:00</t>
+    <t>2022-09-02T05:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -110,13 +110,13 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.1.81</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeCommon_CS</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeHOT9_CS</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.1.73</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeYJ_CS</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:18:16+00:00</t>
+    <t>2022-09-02T05:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:23:11+00:00</t>
+    <t>2022-09-02T05:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:31:57+00:00</t>
+    <t>2022-09-02T07:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T07:45:49+00:00</t>
+    <t>2022-09-02T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:30:25+00:00</t>
+    <t>2022-09-02T09:35:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:35:05+00:00</t>
+    <t>2022-09-02T10:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T10:41:06+00:00</t>
+    <t>2022-09-02T11:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:26:25+00:00</t>
+    <t>2022-09-02T11:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:38:41+00:00</t>
+    <t>2022-09-02T11:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:58:56+00:00</t>
+    <t>2022-09-02T12:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T12:49:53+00:00</t>
+    <t>2022-09-02T13:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
